--- a/src/main/resources/template11.xlsx
+++ b/src/main/resources/template11.xlsx
@@ -23,6 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>陈绮琳</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>陈绮琳:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+test comment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
@@ -101,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +152,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -159,11 +210,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,11 +495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -463,13 +514,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
@@ -519,7 +570,7 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -530,5 +581,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>